--- a/GP/Riscos.v3.xlsx
+++ b/GP/Riscos.v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computador\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="L1" s="54"/>
     </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>77</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>78</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
     </row>
-    <row r="4" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>88</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
@@ -3879,7 +3879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="L6" s="49"/>
     </row>
-    <row r="7" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="L7" s="49"/>
     </row>
-    <row r="8" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
